--- a/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Familia_Ingresos Causas Por Materia_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Familia_Ingresos Causas Por Materia_2018-Abríl.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -291,13 +291,13 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
         </is>
       </c>
       <c r="B10" s="65">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -351,7 +351,7 @@
         </is>
       </c>
       <c r="B15" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -361,123 +361,123 @@
         </is>
       </c>
       <c r="B16" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Desafectacion De Bienes Familiares</t>
+          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Divorcio Por Culpa</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Entrega Menor Y/O Especies Del Menor/Costo De Crianza Y Educacion Tasados Por El Juez (Art. 239 Cc)</t>
+          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
+          <t xml:space="preserve">Infracción A La Ley Penal</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Infracción A La Ley Penal</t>
+          <t xml:space="preserve">Otros Procedimientos Menores</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
+          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
+          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
         </is>
       </c>
       <c r="B28" s="65">
@@ -487,21 +487,31 @@
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
+          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
+        </is>
+      </c>
+      <c r="B30" s="65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="inlineStr" r="A31">
+        <is>
           <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
-      <c r="B30" s="65">
-        <v>55</v>
+      <c r="B31" s="65">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
